--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H2">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N2">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q2">
-        <v>8.836059474656311</v>
+        <v>61.90325883935199</v>
       </c>
       <c r="R2">
-        <v>8.836059474656311</v>
+        <v>557.129329554168</v>
       </c>
       <c r="S2">
-        <v>0.03146374570530063</v>
+        <v>0.071998354307599</v>
       </c>
       <c r="T2">
-        <v>0.03146374570530063</v>
+        <v>0.071998354307599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H3">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N3">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q3">
-        <v>21.61310561237826</v>
+        <v>11.007492600672</v>
       </c>
       <c r="R3">
-        <v>21.61310561237826</v>
+        <v>99.06743340604798</v>
       </c>
       <c r="S3">
-        <v>0.07696069281110468</v>
+        <v>0.01280257884900964</v>
       </c>
       <c r="T3">
-        <v>0.07696069281110468</v>
+        <v>0.01280257884900964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.8563825880878</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H4">
-        <v>37.8563825880878</v>
+        <v>31.101992</v>
       </c>
       <c r="I4">
-        <v>0.4446477474918807</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J4">
-        <v>0.4446477474918807</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N4">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q4">
-        <v>36.23660860845267</v>
+        <v>0.3060505128337778</v>
       </c>
       <c r="R4">
-        <v>36.23660860845267</v>
+        <v>2.754454615504</v>
       </c>
       <c r="S4">
-        <v>0.1290325672602163</v>
+        <v>0.0003559607954762624</v>
       </c>
       <c r="T4">
-        <v>0.1290325672602163</v>
+        <v>0.0003559607954762623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.8563825880878</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H5">
-        <v>37.8563825880878</v>
+        <v>31.101992</v>
       </c>
       <c r="I5">
-        <v>0.4446477474918807</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J5">
-        <v>0.4446477474918807</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N5">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q5">
-        <v>88.6351717227849</v>
+        <v>27.32058762220177</v>
       </c>
       <c r="R5">
-        <v>88.6351717227849</v>
+        <v>245.885288599816</v>
       </c>
       <c r="S5">
-        <v>0.3156151802316643</v>
+        <v>0.03177599022080302</v>
       </c>
       <c r="T5">
-        <v>0.3156151802316643</v>
+        <v>0.03177599022080302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.9010641635131</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H6">
-        <v>24.9010641635131</v>
+        <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.2924791365020958</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J6">
-        <v>0.2924791365020958</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N6">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q6">
-        <v>23.83561382093401</v>
+        <v>226.389658224968</v>
       </c>
       <c r="R6">
-        <v>23.83561382093401</v>
+        <v>2037.506924024712</v>
       </c>
       <c r="S6">
-        <v>0.08487467678806986</v>
+        <v>0.2633089619200428</v>
       </c>
       <c r="T6">
-        <v>0.08487467678806986</v>
+        <v>0.2633089619200429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.9010641635131</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H7">
-        <v>24.9010641635131</v>
+        <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.2924791365020958</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J7">
-        <v>0.2924791365020958</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N7">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q7">
-        <v>58.30219232060426</v>
+        <v>40.256079154848</v>
       </c>
       <c r="R7">
-        <v>58.30219232060426</v>
+        <v>362.304712393632</v>
       </c>
       <c r="S7">
-        <v>0.2076044597140259</v>
+        <v>0.04682098332734298</v>
       </c>
       <c r="T7">
-        <v>0.2076044597140259</v>
+        <v>0.04682098332734299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.1494385347762</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H8">
-        <v>13.1494385347762</v>
+        <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.1544486774896183</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J8">
-        <v>0.1544486774896183</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N8">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q8">
-        <v>12.58680901422227</v>
+        <v>1.119273400126222</v>
       </c>
       <c r="R8">
-        <v>12.58680901422227</v>
+        <v>10.073460601136</v>
       </c>
       <c r="S8">
-        <v>0.04481954418715353</v>
+        <v>0.0013018029153924</v>
       </c>
       <c r="T8">
-        <v>0.04481954418715353</v>
+        <v>0.0013018029153924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.1494385347762</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H9">
-        <v>13.1494385347762</v>
+        <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.1544486774896183</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J9">
-        <v>0.1544486774896183</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N9">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q9">
-        <v>30.78748319061104</v>
+        <v>99.91555550163822</v>
       </c>
       <c r="R9">
-        <v>30.78748319061104</v>
+        <v>899.2399995147441</v>
       </c>
       <c r="S9">
-        <v>0.1096291333024647</v>
+        <v>0.1162096422825876</v>
       </c>
       <c r="T9">
-        <v>0.1096291333024647</v>
+        <v>0.1162096422825876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.72147866666667</v>
+      </c>
+      <c r="H10">
+        <v>80.16443599999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3013909433702152</v>
+      </c>
+      <c r="J10">
+        <v>0.3013909433702153</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>5.970993</v>
+      </c>
+      <c r="N10">
+        <v>17.912979</v>
+      </c>
+      <c r="O10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q10">
+        <v>159.553762068316</v>
+      </c>
+      <c r="R10">
+        <v>1435.983858614844</v>
+      </c>
+      <c r="S10">
+        <v>0.1855735628122097</v>
+      </c>
+      <c r="T10">
+        <v>0.1855735628122098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.72147866666667</v>
+      </c>
+      <c r="H11">
+        <v>80.16443599999999</v>
+      </c>
+      <c r="I11">
+        <v>0.3013909433702152</v>
+      </c>
+      <c r="J11">
+        <v>0.3013909433702153</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.061748</v>
+      </c>
+      <c r="N11">
+        <v>3.185244</v>
+      </c>
+      <c r="O11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q11">
+        <v>28.371476531376</v>
+      </c>
+      <c r="R11">
+        <v>255.343288782384</v>
+      </c>
+      <c r="S11">
+        <v>0.03299825659965404</v>
+      </c>
+      <c r="T11">
+        <v>0.03299825659965404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.72147866666667</v>
+      </c>
+      <c r="H12">
+        <v>80.16443599999999</v>
+      </c>
+      <c r="I12">
+        <v>0.3013909433702152</v>
+      </c>
+      <c r="J12">
+        <v>0.3013909433702153</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.088562</v>
+      </c>
+      <c r="O12">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P12">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q12">
+        <v>0.7888358645591111</v>
+      </c>
+      <c r="R12">
+        <v>7.099522781031999</v>
+      </c>
+      <c r="S12">
+        <v>0.0009174780961767956</v>
+      </c>
+      <c r="T12">
+        <v>0.0009174780961767956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.72147866666667</v>
+      </c>
+      <c r="H13">
+        <v>80.16443599999999</v>
+      </c>
+      <c r="I13">
+        <v>0.3013909433702152</v>
+      </c>
+      <c r="J13">
+        <v>0.3013909433702153</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.905773</v>
+      </c>
+      <c r="O13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q13">
+        <v>70.4179815210031</v>
+      </c>
+      <c r="R13">
+        <v>633.761833689028</v>
+      </c>
+      <c r="S13">
+        <v>0.08190164586217467</v>
+      </c>
+      <c r="T13">
+        <v>0.08190164586217467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.65680433333333</v>
+      </c>
+      <c r="H14">
+        <v>40.970413</v>
+      </c>
+      <c r="I14">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="J14">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>5.970993</v>
+      </c>
+      <c r="N14">
+        <v>17.912979</v>
+      </c>
+      <c r="O14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q14">
+        <v>81.544683076703</v>
+      </c>
+      <c r="R14">
+        <v>733.902147690327</v>
+      </c>
+      <c r="S14">
+        <v>0.09484287409316612</v>
+      </c>
+      <c r="T14">
+        <v>0.09484287409316614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.65680433333333</v>
+      </c>
+      <c r="H15">
+        <v>40.970413</v>
+      </c>
+      <c r="I15">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="J15">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.061748</v>
+      </c>
+      <c r="N15">
+        <v>3.185244</v>
+      </c>
+      <c r="O15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q15">
+        <v>14.500084687308</v>
+      </c>
+      <c r="R15">
+        <v>130.500762185772</v>
+      </c>
+      <c r="S15">
+        <v>0.01686473788910336</v>
+      </c>
+      <c r="T15">
+        <v>0.01686473788910336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.65680433333333</v>
+      </c>
+      <c r="H16">
+        <v>40.970413</v>
+      </c>
+      <c r="I16">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="J16">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.088562</v>
+      </c>
+      <c r="O16">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P16">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q16">
+        <v>0.4031579684562223</v>
+      </c>
+      <c r="R16">
+        <v>3.628421716106</v>
+      </c>
+      <c r="S16">
+        <v>0.0004689043969425174</v>
+      </c>
+      <c r="T16">
+        <v>0.0004689043969425175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.65680433333333</v>
+      </c>
+      <c r="H17">
+        <v>40.970413</v>
+      </c>
+      <c r="I17">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="J17">
+        <v>0.154034782011531</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.905773</v>
+      </c>
+      <c r="O17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q17">
+        <v>35.98919832158322</v>
+      </c>
+      <c r="R17">
+        <v>323.902784894249</v>
+      </c>
+      <c r="S17">
+        <v>0.04185826563231902</v>
+      </c>
+      <c r="T17">
+        <v>0.04185826563231902</v>
       </c>
     </row>
   </sheetData>
